--- a/SANRIA Engineering proposal for project- Univy of Montana Football Scoreboard  -Apr-08-2016.xlsx
+++ b/SANRIA Engineering proposal for project- Univy of Montana Football Scoreboard  -Apr-08-2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Project Proposal</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>OFA by 3 weeks from the RFC receiving date</t>
+  </si>
+  <si>
+    <t>Inputs from Govind.</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2525,14 +2528,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
